--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.793823</v>
+        <v>11.629057</v>
       </c>
       <c r="H2">
-        <v>32.381469</v>
+        <v>34.887171</v>
       </c>
       <c r="I2">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977661</v>
       </c>
       <c r="J2">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977662</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>53.87858066666666</v>
+        <v>47.94281066666667</v>
       </c>
       <c r="N2">
-        <v>161.635742</v>
+        <v>143.828432</v>
       </c>
       <c r="O2">
-        <v>0.5277355398832225</v>
+        <v>0.5121205055510206</v>
       </c>
       <c r="P2">
-        <v>0.5277355398832226</v>
+        <v>0.5121205055510205</v>
       </c>
       <c r="Q2">
-        <v>581.555863207222</v>
+        <v>557.5296779828745</v>
       </c>
       <c r="R2">
-        <v>5234.002768864998</v>
+        <v>5017.767101845871</v>
       </c>
       <c r="S2">
-        <v>0.1571566210285936</v>
+        <v>0.1568460443824584</v>
       </c>
       <c r="T2">
-        <v>0.1571566210285936</v>
+        <v>0.1568460443824584</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.793823</v>
+        <v>11.629057</v>
       </c>
       <c r="H3">
-        <v>32.381469</v>
+        <v>34.887171</v>
       </c>
       <c r="I3">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977661</v>
       </c>
       <c r="J3">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977662</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>117.30133</v>
       </c>
       <c r="O3">
-        <v>0.3829850994006638</v>
+        <v>0.4176671857300586</v>
       </c>
       <c r="P3">
-        <v>0.3829850994006639</v>
+        <v>0.4176671857300586</v>
       </c>
       <c r="Q3">
-        <v>422.0432645615301</v>
+        <v>454.7012842486033</v>
       </c>
       <c r="R3">
-        <v>3798.389381053771</v>
+        <v>4092.31155823743</v>
       </c>
       <c r="S3">
-        <v>0.1140507689503476</v>
+        <v>0.1279180295263276</v>
       </c>
       <c r="T3">
-        <v>0.1140507689503476</v>
+        <v>0.1279180295263276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.793823</v>
+        <v>11.629057</v>
       </c>
       <c r="H4">
-        <v>32.381469</v>
+        <v>34.887171</v>
       </c>
       <c r="I4">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977661</v>
       </c>
       <c r="J4">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977662</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.114878333333332</v>
+        <v>6.573014333333333</v>
       </c>
       <c r="N4">
-        <v>27.344635</v>
+        <v>19.719043</v>
       </c>
       <c r="O4">
-        <v>0.08927936071611352</v>
+        <v>0.07021230871892084</v>
       </c>
       <c r="P4">
-        <v>0.08927936071611355</v>
+        <v>0.07021230871892084</v>
       </c>
       <c r="Q4">
-        <v>98.384383396535</v>
+        <v>76.43795834415032</v>
       </c>
       <c r="R4">
-        <v>885.459450568815</v>
+        <v>687.9416250973529</v>
       </c>
       <c r="S4">
-        <v>0.02658688224947311</v>
+        <v>0.02150377258898021</v>
       </c>
       <c r="T4">
-        <v>0.02658688224947311</v>
+        <v>0.02150377258898022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>71.412368</v>
       </c>
       <c r="I5">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645606</v>
       </c>
       <c r="J5">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645607</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>53.87858066666666</v>
+        <v>47.94281066666667</v>
       </c>
       <c r="N5">
-        <v>161.635742</v>
+        <v>143.828432</v>
       </c>
       <c r="O5">
-        <v>0.5277355398832225</v>
+        <v>0.5121205055510206</v>
       </c>
       <c r="P5">
-        <v>0.5277355398832226</v>
+        <v>0.5121205055510205</v>
       </c>
       <c r="Q5">
-        <v>1282.532343295228</v>
+        <v>1141.236546094108</v>
       </c>
       <c r="R5">
-        <v>11542.79108965706</v>
+        <v>10271.12891484698</v>
       </c>
       <c r="S5">
-        <v>0.3465848462443277</v>
+        <v>0.3210563401883303</v>
       </c>
       <c r="T5">
-        <v>0.3465848462443277</v>
+        <v>0.3210563401883303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>71.412368</v>
       </c>
       <c r="I6">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645606</v>
       </c>
       <c r="J6">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645607</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>117.30133</v>
       </c>
       <c r="O6">
-        <v>0.3829850994006638</v>
+        <v>0.4176671857300586</v>
       </c>
       <c r="P6">
-        <v>0.3829850994006639</v>
+        <v>0.4176671857300586</v>
       </c>
       <c r="Q6">
         <v>930.7517494277157</v>
@@ -818,10 +818,10 @@
         <v>8376.765744849441</v>
       </c>
       <c r="S6">
-        <v>0.2515214946846666</v>
+        <v>0.2618420793812422</v>
       </c>
       <c r="T6">
-        <v>0.2515214946846667</v>
+        <v>0.2618420793812422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>71.412368</v>
       </c>
       <c r="I7">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645606</v>
       </c>
       <c r="J7">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645607</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.114878333333332</v>
+        <v>6.573014333333333</v>
       </c>
       <c r="N7">
-        <v>27.344635</v>
+        <v>19.719043</v>
       </c>
       <c r="O7">
-        <v>0.08927936071611352</v>
+        <v>0.07021230871892084</v>
       </c>
       <c r="P7">
-        <v>0.08927936071611355</v>
+        <v>0.07021230871892084</v>
       </c>
       <c r="Q7">
-        <v>216.9716819384089</v>
+        <v>156.4648394804249</v>
       </c>
       <c r="R7">
-        <v>1952.74513744568</v>
+        <v>1408.183555323824</v>
       </c>
       <c r="S7">
-        <v>0.05863329483823113</v>
+        <v>0.04401719249498814</v>
       </c>
       <c r="T7">
-        <v>0.05863329483823115</v>
+        <v>0.04401719249498815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.647959666666667</v>
+        <v>2.537038666666667</v>
       </c>
       <c r="H8">
-        <v>4.943879000000001</v>
+        <v>7.611116</v>
       </c>
       <c r="I8">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="J8">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>53.87858066666666</v>
+        <v>47.94281066666667</v>
       </c>
       <c r="N8">
-        <v>161.635742</v>
+        <v>143.828432</v>
       </c>
       <c r="O8">
-        <v>0.5277355398832225</v>
+        <v>0.5121205055510206</v>
       </c>
       <c r="P8">
-        <v>0.5277355398832226</v>
+        <v>0.5121205055510205</v>
       </c>
       <c r="Q8">
-        <v>88.78972783591313</v>
+        <v>121.6327644500124</v>
       </c>
       <c r="R8">
-        <v>799.1075505232182</v>
+        <v>1094.694880050112</v>
       </c>
       <c r="S8">
-        <v>0.02399407261030135</v>
+        <v>0.03421812098023193</v>
       </c>
       <c r="T8">
-        <v>0.02399407261030136</v>
+        <v>0.03421812098023193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.647959666666667</v>
+        <v>2.537038666666667</v>
       </c>
       <c r="H9">
-        <v>4.943879000000001</v>
+        <v>7.611116</v>
       </c>
       <c r="I9">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="J9">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>117.30133</v>
       </c>
       <c r="O9">
-        <v>0.3829850994006638</v>
+        <v>0.4176671857300586</v>
       </c>
       <c r="P9">
-        <v>0.3829850994006639</v>
+        <v>0.4176671857300586</v>
       </c>
       <c r="Q9">
-        <v>64.43595356211891</v>
+        <v>99.19933662047556</v>
       </c>
       <c r="R9">
-        <v>579.9235820590701</v>
+        <v>892.7940295842801</v>
       </c>
       <c r="S9">
-        <v>0.01741283576564966</v>
+        <v>0.02790707682248883</v>
       </c>
       <c r="T9">
-        <v>0.01741283576564966</v>
+        <v>0.02790707682248882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.647959666666667</v>
+        <v>2.537038666666667</v>
       </c>
       <c r="H10">
-        <v>4.943879000000001</v>
+        <v>7.611116</v>
       </c>
       <c r="I10">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="J10">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.114878333333332</v>
+        <v>6.573014333333333</v>
       </c>
       <c r="N10">
-        <v>27.344635</v>
+        <v>19.719043</v>
       </c>
       <c r="O10">
-        <v>0.08927936071611352</v>
+        <v>0.07021230871892084</v>
       </c>
       <c r="P10">
-        <v>0.08927936071611355</v>
+        <v>0.07021230871892084</v>
       </c>
       <c r="Q10">
-        <v>15.02095185990722</v>
+        <v>16.67599152022089</v>
       </c>
       <c r="R10">
-        <v>135.188566739165</v>
+        <v>150.083923681988</v>
       </c>
       <c r="S10">
-        <v>0.004059183628409287</v>
+        <v>0.00469134363495248</v>
       </c>
       <c r="T10">
-        <v>0.004059183628409289</v>
+        <v>0.00469134363495248</v>
       </c>
     </row>
   </sheetData>
